--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -677,9 +677,6 @@
     <t>selected( ${role},'patient')</t>
   </si>
   <si>
-    <t>select_one patient_type</t>
-  </si>
-  <si>
     <t>covid_status</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>Would you like to refer ${patient_name} for testing?</t>
+  </si>
+  <si>
+    <t>select_one covid_status</t>
   </si>
 </sst>
 </file>
@@ -1194,9 +1194,9 @@
   </sheetPr>
   <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B61" sqref="B61"/>
+      <selection pane="topRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="51" spans="1:38" ht="14.25" customHeight="1">
       <c r="A51" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>216</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>217</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>214</v>
@@ -3731,10 +3731,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>222</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>223</v>
       </c>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
@@ -3819,14 +3819,14 @@
         <v>41</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -3867,10 +3867,10 @@
         <v>104</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
@@ -3913,10 +3913,10 @@
         <v>148</v>
       </c>
       <c r="B56" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>226</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>227</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
@@ -3956,13 +3956,13 @@
     </row>
     <row r="57" spans="1:38" ht="14.25" customHeight="1">
       <c r="A57" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="43" t="s">
         <v>228</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>229</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
@@ -4047,14 +4047,14 @@
         <v>41</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
@@ -4095,10 +4095,10 @@
         <v>104</v>
       </c>
       <c r="B60" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>242</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>243</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -4700,7 +4700,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5295,57 +5295,57 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>233</v>
-      </c>
       <c r="C20" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-17 15-10</v>
+        <v>2020-10-17 16-05</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -671,9 +671,6 @@
     <t>case_type</t>
   </si>
   <si>
-    <t>Is${person_name}  a suspected or lab confirmed COVID-19 case?</t>
-  </si>
-  <si>
     <t>selected( ${role},'patient')</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>select_one covid_status</t>
+  </si>
+  <si>
+    <t>Is${short_name}  a suspected or lab confirmed COVID-19 case?</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A51" sqref="A51"/>
+      <selection pane="topRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3644,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -3682,13 +3682,13 @@
     </row>
     <row r="51" spans="1:38" ht="14.25" customHeight="1">
       <c r="A51" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>243</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>214</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
@@ -3731,10 +3731,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>221</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>222</v>
       </c>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
@@ -3819,14 +3819,14 @@
         <v>41</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -3867,10 +3867,10 @@
         <v>104</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
@@ -3913,10 +3913,10 @@
         <v>148</v>
       </c>
       <c r="B56" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>226</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
@@ -3956,13 +3956,13 @@
     </row>
     <row r="57" spans="1:38" ht="14.25" customHeight="1">
       <c r="A57" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" s="43" t="s">
         <v>227</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>228</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
@@ -4047,14 +4047,14 @@
         <v>41</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
@@ -4095,10 +4095,10 @@
         <v>104</v>
       </c>
       <c r="B60" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>241</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>242</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -5295,57 +5295,57 @@
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>232</v>
-      </c>
       <c r="C20" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-17 16-05</v>
+        <v>2020-10-17 16-13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -695,9 +695,6 @@
     <t>Patient address</t>
   </si>
   <si>
-    <t>Would you like to enter ${patient_name}'s initial positive testing details?</t>
-  </si>
-  <si>
     <t>initial_postive_test</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>Is${short_name}  a suspected or lab confirmed COVID-19 case?</t>
+  </si>
+  <si>
+    <t>Would you like to enter ${short_name}'s initial positive testing details?</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C54" sqref="C54"/>
+      <selection pane="topRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3682,13 +3682,13 @@
     </row>
     <row r="51" spans="1:38" ht="14.25" customHeight="1">
       <c r="A51" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>215</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
@@ -3819,14 +3819,14 @@
         <v>41</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -3867,10 +3867,10 @@
         <v>104</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
@@ -3913,10 +3913,10 @@
         <v>148</v>
       </c>
       <c r="B56" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>225</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
@@ -3956,13 +3956,13 @@
     </row>
     <row r="57" spans="1:38" ht="14.25" customHeight="1">
       <c r="A57" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="43" t="s">
         <v>226</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>227</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
@@ -4047,14 +4047,14 @@
         <v>41</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
@@ -4095,10 +4095,10 @@
         <v>104</v>
       </c>
       <c r="B60" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>240</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>241</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -5317,35 +5317,35 @@
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>231</v>
-      </c>
       <c r="C20" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-17 16-13</v>
+        <v>2020-10-17 16-14</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -749,16 +749,16 @@
     <t>refer_testing</t>
   </si>
   <si>
-    <t>Would you like to refer ${patient_name} for testing?</t>
-  </si>
-  <si>
     <t>select_one covid_status</t>
   </si>
   <si>
-    <t>Is${short_name}  a suspected or lab confirmed COVID-19 case?</t>
-  </si>
-  <si>
-    <t>Would you like to enter ${short_name}'s initial positive testing details?</t>
+    <t>Is${person_name}  a suspected or lab confirmed COVID-19 case?</t>
+  </si>
+  <si>
+    <t>Would you like to enter ${person_name}'s initial positive testing details?</t>
+  </si>
+  <si>
+    <t>Would you like to refer ${person_name} for testing?</t>
   </si>
 </sst>
 </file>
@@ -1194,9 +1194,9 @@
   </sheetPr>
   <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C55" sqref="C55"/>
+      <selection pane="topRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3682,13 +3682,13 @@
     </row>
     <row r="51" spans="1:38" ht="14.25" customHeight="1">
       <c r="A51" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" s="44" t="s">
         <v>215</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
@@ -3870,7 +3870,7 @@
         <v>222</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
@@ -4098,7 +4098,7 @@
         <v>239</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-17 16-14</v>
+        <v>2020-10-17 16-18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -1194,9 +1194,9 @@
   </sheetPr>
   <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C67" sqref="C67"/>
+      <selection pane="topRight" activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1204,8 +1204,8 @@
     <col min="1" max="1" width="25.140625" style="34" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="61.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="71.7109375" style="34" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="34" customWidth="1"/>
     <col min="8" max="14" width="8.7109375" style="34" customWidth="1"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-17 16-18</v>
+        <v>2020-10-18 11-02</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="262">
   <si>
     <t>list_name</t>
   </si>
@@ -692,12 +692,6 @@
     <t>patient_address</t>
   </si>
   <si>
-    <t>Patient address</t>
-  </si>
-  <si>
-    <t>initial_postive_test</t>
-  </si>
-  <si>
     <t>date_test_result</t>
   </si>
   <si>
@@ -752,13 +746,73 @@
     <t>select_one covid_status</t>
   </si>
   <si>
-    <t>Is${person_name}  a suspected or lab confirmed COVID-19 case?</t>
-  </si>
-  <si>
     <t>Would you like to enter ${person_name}'s initial positive testing details?</t>
   </si>
   <si>
     <t>Would you like to refer ${person_name} for testing?</t>
+  </si>
+  <si>
+    <t>Is ${person_name}  a suspected or lab confirmed COVID-19 case?</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>Chief</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>patient_details</t>
+  </si>
+  <si>
+    <t>Patient Address</t>
+  </si>
+  <si>
+    <t>travelled_from</t>
+  </si>
+  <si>
+    <t>Travelled From</t>
+  </si>
+  <si>
+    <t>initial_test_result</t>
+  </si>
+  <si>
+    <t>selected( ${initial_test_result}, 'yes')</t>
+  </si>
+  <si>
+    <t>suspicion reasons</t>
+  </si>
+  <si>
+    <t>Why do you suspect ${person_name} of having COVID 19?</t>
+  </si>
+  <si>
+    <t>select_multiple covid_suspicion</t>
+  </si>
+  <si>
+    <t>covid_suspicion</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>Is signs and Symptoms of COVID</t>
+  </si>
+  <si>
+    <t>exposed</t>
+  </si>
+  <si>
+    <t>Has been in cotact with a confirmed COVID 19 patient</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>Has travelled from a COVID 19 hotspot</t>
   </si>
 </sst>
 </file>
@@ -1192,11 +1246,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A61" sqref="A61:XFD61"/>
+      <selection pane="topRight" activeCell="A50" sqref="A50:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3638,14 +3692,11 @@
         <v>41</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>214</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
@@ -3682,16 +3733,18 @@
     </row>
     <row r="51" spans="1:38" ht="14.25" customHeight="1">
       <c r="A51" s="44" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="E51" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
@@ -3731,10 +3784,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
@@ -3774,10 +3827,14 @@
     </row>
     <row r="53" spans="1:38" ht="14.25" customHeight="1">
       <c r="A53" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="43"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>245</v>
+      </c>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
@@ -3816,18 +3873,16 @@
     </row>
     <row r="54" spans="1:38" ht="14.25" customHeight="1">
       <c r="A54" s="44" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="D54" s="43"/>
-      <c r="E54" s="43" t="s">
-        <v>236</v>
-      </c>
+      <c r="E54" s="43"/>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
@@ -3864,16 +3919,17 @@
     </row>
     <row r="55" spans="1:38" ht="14.25" customHeight="1">
       <c r="A55" s="44" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
+        <v>213</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
       <c r="H55" s="43"/>
@@ -3910,13 +3966,13 @@
     </row>
     <row r="56" spans="1:38" ht="14.25" customHeight="1">
       <c r="A56" s="44" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
@@ -3956,14 +4012,10 @@
     </row>
     <row r="57" spans="1:38" ht="14.25" customHeight="1">
       <c r="A57" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>226</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B57" s="44"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -4002,12 +4054,18 @@
     </row>
     <row r="58" spans="1:38" ht="14.25" customHeight="1">
       <c r="A58" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="43"/>
+        <v>41</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
+      <c r="E58" s="43" t="s">
+        <v>234</v>
+      </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
@@ -4044,18 +4102,16 @@
     </row>
     <row r="59" spans="1:38" ht="14.25" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="D59" s="43"/>
-      <c r="E59" s="43" t="s">
-        <v>238</v>
-      </c>
+      <c r="E59" s="43"/>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -4092,16 +4148,18 @@
     </row>
     <row r="60" spans="1:38" ht="14.25" customHeight="1">
       <c r="A60" s="44" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
+      <c r="E60" s="43" t="s">
+        <v>251</v>
+      </c>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
@@ -4138,12 +4196,18 @@
     </row>
     <row r="61" spans="1:38" ht="14.25" customHeight="1">
       <c r="A61" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="43"/>
+        <v>226</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>224</v>
+      </c>
       <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
+      <c r="E61" s="43" t="s">
+        <v>251</v>
+      </c>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
@@ -4180,14 +4244,10 @@
     </row>
     <row r="62" spans="1:38" ht="14.25" customHeight="1">
       <c r="A62" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>200</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B62" s="44"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="43"/>
@@ -4226,19 +4286,19 @@
     </row>
     <row r="63" spans="1:38" ht="14.25" customHeight="1">
       <c r="A63" s="44" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43" t="s">
-        <v>202</v>
-      </c>
+      <c r="E63" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" s="43"/>
       <c r="G63" s="43"/>
       <c r="H63" s="43"/>
       <c r="I63" s="43"/>
@@ -4274,19 +4334,15 @@
     </row>
     <row r="64" spans="1:38" ht="14.25" customHeight="1">
       <c r="A64" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>203</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B64" s="44"/>
       <c r="C64" s="43" t="s">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="43" t="s">
-        <v>99</v>
-      </c>
+      <c r="F64" s="43"/>
       <c r="G64" s="43"/>
       <c r="H64" s="43"/>
       <c r="I64" s="43"/>
@@ -4322,20 +4378,14 @@
     </row>
     <row r="65" spans="1:38" ht="14.25" customHeight="1">
       <c r="A65" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>43</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="43"/>
-      <c r="G65" s="43" t="s">
-        <v>94</v>
-      </c>
+      <c r="G65" s="43"/>
       <c r="H65" s="43"/>
       <c r="I65" s="43"/>
       <c r="J65" s="43"/>
@@ -4370,20 +4420,20 @@
     </row>
     <row r="66" spans="1:38" ht="14.25" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
+      <c r="E66" s="43" t="s">
+        <v>236</v>
+      </c>
       <c r="F66" s="43"/>
-      <c r="G66" s="43" t="s">
-        <v>94</v>
-      </c>
+      <c r="G66" s="43"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
@@ -4418,20 +4468,18 @@
     </row>
     <row r="67" spans="1:38" ht="14.25" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="43"/>
-      <c r="G67" s="43" t="s">
-        <v>94</v>
-      </c>
+      <c r="G67" s="43"/>
       <c r="H67" s="43"/>
       <c r="I67" s="43"/>
       <c r="J67" s="43"/>
@@ -4466,11 +4514,9 @@
     </row>
     <row r="68" spans="1:38" ht="14.25" customHeight="1">
       <c r="A68" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>207</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B68" s="44"/>
       <c r="C68" s="43"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -4484,9 +4530,7 @@
       <c r="M68" s="43"/>
       <c r="N68" s="43"/>
       <c r="O68" s="43"/>
-      <c r="P68" s="43" t="s">
-        <v>208</v>
-      </c>
+      <c r="P68" s="43"/>
       <c r="Q68" s="43"/>
       <c r="R68" s="43"/>
       <c r="S68" s="43"/>
@@ -4512,12 +4556,14 @@
     </row>
     <row r="69" spans="1:38" ht="14.25" customHeight="1">
       <c r="A69" s="44" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" s="43"/>
+        <v>199</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>200</v>
+      </c>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
@@ -4530,9 +4576,7 @@
       <c r="M69" s="43"/>
       <c r="N69" s="43"/>
       <c r="O69" s="43"/>
-      <c r="P69" s="43" t="s">
-        <v>210</v>
-      </c>
+      <c r="P69" s="43"/>
       <c r="Q69" s="43"/>
       <c r="R69" s="43"/>
       <c r="S69" s="43"/>
@@ -4558,15 +4602,19 @@
     </row>
     <row r="70" spans="1:38" ht="14.25" customHeight="1">
       <c r="A70" s="44" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="43"/>
+        <v>40</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>201</v>
+      </c>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
+      <c r="F70" s="43" t="s">
+        <v>202</v>
+      </c>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="43"/>
@@ -4576,9 +4624,7 @@
       <c r="M70" s="43"/>
       <c r="N70" s="43"/>
       <c r="O70" s="43"/>
-      <c r="P70" s="43" t="s">
-        <v>212</v>
-      </c>
+      <c r="P70" s="43"/>
       <c r="Q70" s="43"/>
       <c r="R70" s="43"/>
       <c r="S70" s="43"/>
@@ -4604,13 +4650,19 @@
     </row>
     <row r="71" spans="1:38" ht="14.25" customHeight="1">
       <c r="A71" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="43"/>
+        <v>41</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="F71" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
       <c r="I71" s="43"/>
@@ -4646,14 +4698,20 @@
     </row>
     <row r="72" spans="1:38" ht="14.25" customHeight="1">
       <c r="A72" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
       <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
+      <c r="G72" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="H72" s="43"/>
       <c r="I72" s="43"/>
       <c r="J72" s="43"/>
@@ -4686,6 +4744,324 @@
       <c r="AK72" s="43"/>
       <c r="AL72" s="43"/>
     </row>
+    <row r="73" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A73" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="43"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="43"/>
+    </row>
+    <row r="74" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A74" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="43"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="43"/>
+      <c r="AG74" s="43"/>
+      <c r="AH74" s="43"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="43"/>
+    </row>
+    <row r="75" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A75" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="43"/>
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="43"/>
+    </row>
+    <row r="76" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A76" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="43"/>
+      <c r="AD76" s="43"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="43"/>
+      <c r="AH76" s="43"/>
+      <c r="AI76" s="43"/>
+      <c r="AJ76" s="43"/>
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="43"/>
+    </row>
+    <row r="77" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A77" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+      <c r="AD77" s="43"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="43"/>
+      <c r="AG77" s="43"/>
+      <c r="AH77" s="43"/>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="43"/>
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="43"/>
+    </row>
+    <row r="78" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A78" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="44"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="43"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="43"/>
+      <c r="AH78" s="43"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="43"/>
+    </row>
+    <row r="79" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A79" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="44"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="43"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="43"/>
+      <c r="AH79" s="43"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="43"/>
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4697,10 +5073,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4818,17 +5194,11 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
@@ -4856,12 +5226,12 @@
         <v>47</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
@@ -4887,13 +5257,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="19"/>
@@ -4924,10 +5294,10 @@
         <v>57</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="19"/>
@@ -4954,14 +5324,14 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>64</v>
+      <c r="A8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="19"/>
@@ -4988,15 +5358,9 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="19"/>
       <c r="F9" s="14"/>
@@ -5023,13 +5387,13 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="19"/>
@@ -5056,15 +5420,9 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="12"/>
       <c r="E11" s="19"/>
       <c r="F11" s="14"/>
@@ -5094,12 +5452,12 @@
         <v>65</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
@@ -5127,11 +5485,11 @@
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>80</v>
+      <c r="B13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="19"/>
@@ -5162,10 +5520,10 @@
         <v>65</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="19"/>
@@ -5193,15 +5551,15 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
@@ -5227,13 +5585,13 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="19"/>
@@ -5261,15 +5619,15 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="19"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
@@ -5293,60 +5651,264 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1">
+      <c r="A23" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1">
-      <c r="A19" s="48" t="s">
+    <row r="24" spans="1:26" ht="15" customHeight="1">
+      <c r="A24" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B24" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1">
-      <c r="A20" s="48" t="s">
+    <row r="25" spans="1:26" ht="15" customHeight="1">
+      <c r="A25" s="48"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1">
+      <c r="A26" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15" customHeight="1">
+      <c r="A27" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="C27" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15" customHeight="1">
+      <c r="A28" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1">
-      <c r="A21" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1">
-      <c r="A22" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>235</v>
-      </c>
+    <row r="29" spans="1:26" ht="15" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" customHeight="1">
+      <c r="A30" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1">
+      <c r="A31" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1">
+      <c r="A32" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" customHeight="1">
+      <c r="A33" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5420,7 +5982,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 11-02</v>
+        <v>2020-10-18 12-00</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -785,9 +785,6 @@
     <t>selected( ${initial_test_result}, 'yes')</t>
   </si>
   <si>
-    <t>suspicion reasons</t>
-  </si>
-  <si>
     <t>Why do you suspect ${person_name} of having COVID 19?</t>
   </si>
   <si>
@@ -813,6 +810,9 @@
   </si>
   <si>
     <t>Has travelled from a COVID 19 hotspot</t>
+  </si>
+  <si>
+    <t>suspicion_reasons</t>
   </si>
 </sst>
 </file>
@@ -1248,9 +1248,9 @@
   </sheetPr>
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A50" sqref="A50:XFD68"/>
+      <selection pane="topRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4289,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C63" s="43" t="s">
         <v>43</v>
@@ -4334,11 +4334,11 @@
     </row>
     <row r="64" spans="1:38" ht="14.25" customHeight="1">
       <c r="A64" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B64" s="44"/>
       <c r="C64" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
@@ -5075,7 +5075,7 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD32"/>
     </sheetView>
   </sheetViews>
@@ -5876,35 +5876,35 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="A31" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1">
       <c r="A32" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 12-00</v>
+        <v>2020-10-18 12-07</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="262">
   <si>
     <t>list_name</t>
   </si>
@@ -1248,9 +1248,9 @@
   </sheetPr>
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63"/>
+      <selection pane="topRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3694,7 +3694,9 @@
       <c r="B50" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="43"/>
+      <c r="C50" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
@@ -5982,7 +5984,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 12-07</v>
+        <v>2020-10-18 12-11</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="263">
   <si>
     <t>list_name</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>suspicion_reasons</t>
+  </si>
+  <si>
+    <t>reasons_suspicion</t>
   </si>
 </sst>
 </file>
@@ -1248,9 +1251,9 @@
   </sheetPr>
   <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C51" sqref="C51"/>
+      <selection pane="topRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4338,7 +4341,9 @@
       <c r="A64" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="44" t="s">
+        <v>262</v>
+      </c>
       <c r="C64" s="43" t="s">
         <v>252</v>
       </c>
@@ -5984,7 +5989,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 12-11</v>
+        <v>2020-10-18 12-14</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
   <si>
     <t>list_name</t>
   </si>
@@ -1249,11 +1249,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL79"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B64" sqref="B64"/>
+      <selection pane="topRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3924,17 +3924,12 @@
     </row>
     <row r="55" spans="1:38" ht="14.25" customHeight="1">
       <c r="A55" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>214</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
       <c r="H55" s="43"/>
@@ -3971,16 +3966,17 @@
     </row>
     <row r="56" spans="1:38" ht="14.25" customHeight="1">
       <c r="A56" s="44" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+        <v>213</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
@@ -4017,10 +4013,14 @@
     </row>
     <row r="57" spans="1:38" ht="14.25" customHeight="1">
       <c r="A57" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="43"/>
+        <v>238</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>241</v>
+      </c>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -4059,18 +4059,12 @@
     </row>
     <row r="58" spans="1:38" ht="14.25" customHeight="1">
       <c r="A58" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>43</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B58" s="44"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="43"/>
-      <c r="E58" s="43" t="s">
-        <v>234</v>
-      </c>
+      <c r="E58" s="43"/>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
@@ -4107,16 +4101,18 @@
     </row>
     <row r="59" spans="1:38" ht="14.25" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
+      <c r="E59" s="43" t="s">
+        <v>234</v>
+      </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -4153,18 +4149,16 @@
     </row>
     <row r="60" spans="1:38" ht="14.25" customHeight="1">
       <c r="A60" s="44" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D60" s="43"/>
-      <c r="E60" s="43" t="s">
-        <v>251</v>
-      </c>
+      <c r="E60" s="43"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
@@ -4201,13 +4195,13 @@
     </row>
     <row r="61" spans="1:38" ht="14.25" customHeight="1">
       <c r="A61" s="44" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43" t="s">
@@ -4249,12 +4243,18 @@
     </row>
     <row r="62" spans="1:38" ht="14.25" customHeight="1">
       <c r="A62" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="43"/>
+        <v>226</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>224</v>
+      </c>
       <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
+      <c r="E62" s="43" t="s">
+        <v>251</v>
+      </c>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
@@ -4291,18 +4291,12 @@
     </row>
     <row r="63" spans="1:38" ht="14.25" customHeight="1">
       <c r="A63" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>43</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B63" s="44"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="43"/>
-      <c r="E63" s="43" t="s">
-        <v>236</v>
-      </c>
+      <c r="E63" s="43"/>
       <c r="F63" s="43"/>
       <c r="G63" s="43"/>
       <c r="H63" s="43"/>
@@ -4339,16 +4333,18 @@
     </row>
     <row r="64" spans="1:38" ht="14.25" customHeight="1">
       <c r="A64" s="44" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
+      <c r="E64" s="43" t="s">
+        <v>236</v>
+      </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
       <c r="H64" s="43"/>
@@ -4385,10 +4381,14 @@
     </row>
     <row r="65" spans="1:38" ht="14.25" customHeight="1">
       <c r="A65" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="43"/>
+        <v>253</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>252</v>
+      </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="43"/>
@@ -4427,18 +4427,12 @@
     </row>
     <row r="66" spans="1:38" ht="14.25" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>43</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B66" s="44"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="43"/>
-      <c r="E66" s="43" t="s">
-        <v>236</v>
-      </c>
+      <c r="E66" s="43"/>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
@@ -4475,16 +4469,18 @@
     </row>
     <row r="67" spans="1:38" ht="14.25" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
+      <c r="E67" s="43" t="s">
+        <v>236</v>
+      </c>
       <c r="F67" s="43"/>
       <c r="G67" s="43"/>
       <c r="H67" s="43"/>
@@ -4521,10 +4517,14 @@
     </row>
     <row r="68" spans="1:38" ht="14.25" customHeight="1">
       <c r="A68" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>240</v>
+      </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
       <c r="F68" s="43"/>
@@ -4563,14 +4563,10 @@
     </row>
     <row r="69" spans="1:38" ht="14.25" customHeight="1">
       <c r="A69" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>200</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B69" s="44"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
       <c r="F69" s="43"/>
@@ -4612,16 +4608,14 @@
         <v>50</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="43" t="s">
-        <v>202</v>
-      </c>
+      <c r="F70" s="43"/>
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
       <c r="I70" s="43"/>
@@ -4657,18 +4651,18 @@
     </row>
     <row r="71" spans="1:38" ht="14.25" customHeight="1">
       <c r="A71" s="44" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="43" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
@@ -4705,20 +4699,20 @@
     </row>
     <row r="72" spans="1:38" ht="14.25" customHeight="1">
       <c r="A72" s="44" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D72" s="43"/>
       <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43" t="s">
-        <v>94</v>
-      </c>
+      <c r="F72" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="43"/>
       <c r="H72" s="43"/>
       <c r="I72" s="43"/>
       <c r="J72" s="43"/>
@@ -4756,7 +4750,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="43" t="s">
         <v>43</v>
@@ -4804,7 +4798,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>43</v>
@@ -4849,16 +4843,20 @@
     </row>
     <row r="75" spans="1:38" ht="14.25" customHeight="1">
       <c r="A75" s="44" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="43"/>
+        <v>206</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="D75" s="43"/>
       <c r="E75" s="43"/>
       <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
+      <c r="G75" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="H75" s="43"/>
       <c r="I75" s="43"/>
       <c r="J75" s="43"/>
@@ -4867,9 +4865,7 @@
       <c r="M75" s="43"/>
       <c r="N75" s="43"/>
       <c r="O75" s="43"/>
-      <c r="P75" s="43" t="s">
-        <v>208</v>
-      </c>
+      <c r="P75" s="43"/>
       <c r="Q75" s="43"/>
       <c r="R75" s="43"/>
       <c r="S75" s="43"/>
@@ -4898,7 +4894,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C76" s="43"/>
       <c r="D76" s="43"/>
@@ -4914,7 +4910,7 @@
       <c r="N76" s="43"/>
       <c r="O76" s="43"/>
       <c r="P76" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q76" s="43"/>
       <c r="R76" s="43"/>
@@ -4944,7 +4940,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C77" s="43"/>
       <c r="D77" s="43"/>
@@ -4960,7 +4956,7 @@
       <c r="N77" s="43"/>
       <c r="O77" s="43"/>
       <c r="P77" s="43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q77" s="43"/>
       <c r="R77" s="43"/>
@@ -4987,9 +4983,11 @@
     </row>
     <row r="78" spans="1:38" ht="14.25" customHeight="1">
       <c r="A78" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>211</v>
+      </c>
       <c r="C78" s="43"/>
       <c r="D78" s="43"/>
       <c r="E78" s="43"/>
@@ -5003,7 +5001,9 @@
       <c r="M78" s="43"/>
       <c r="N78" s="43"/>
       <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
+      <c r="P78" s="43" t="s">
+        <v>212</v>
+      </c>
       <c r="Q78" s="43"/>
       <c r="R78" s="43"/>
       <c r="S78" s="43"/>
@@ -5069,6 +5069,48 @@
       <c r="AK79" s="43"/>
       <c r="AL79" s="43"/>
     </row>
+    <row r="80" spans="1:38" ht="14.25" customHeight="1">
+      <c r="A80" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="44"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="43"/>
+      <c r="AD80" s="43"/>
+      <c r="AE80" s="43"/>
+      <c r="AF80" s="43"/>
+      <c r="AG80" s="43"/>
+      <c r="AH80" s="43"/>
+      <c r="AI80" s="43"/>
+      <c r="AJ80" s="43"/>
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5989,7 +6031,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 12-14</v>
+        <v>2020-10-18 12-18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -1251,9 +1251,9 @@
   </sheetPr>
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A55" sqref="A55"/>
+      <selection pane="topRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3701,7 +3701,9 @@
         <v>43</v>
       </c>
       <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
+      <c r="E50" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
@@ -3747,9 +3749,7 @@
         <v>247</v>
       </c>
       <c r="D51" s="43"/>
-      <c r="E51" s="43" t="s">
-        <v>214</v>
-      </c>
+      <c r="E51" s="43"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 12-18</v>
+        <v>2020-10-18 12-34</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>

--- a/forms/contact/person-edit.xlsx
+++ b/forms/contact/person-edit.xlsx
@@ -782,9 +782,6 @@
     <t>initial_test_result</t>
   </si>
   <si>
-    <t>selected( ${initial_test_result}, 'yes')</t>
-  </si>
-  <si>
     <t>Why do you suspect ${person_name} of having COVID 19?</t>
   </si>
   <si>
@@ -816,6 +813,9 @@
   </si>
   <si>
     <t>reasons_suspicion</t>
+  </si>
+  <si>
+    <t>selected( ${initial_test_result}, 'true')</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E51" sqref="E51"/>
+      <selection pane="topRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="43" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
@@ -4336,7 +4336,7 @@
         <v>41</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" s="43" t="s">
         <v>43</v>
@@ -4381,13 +4381,13 @@
     </row>
     <row r="65" spans="1:38" ht="14.25" customHeight="1">
       <c r="A65" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
@@ -5925,35 +5925,35 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="A31" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1">
       <c r="A32" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-10-18 12-34</v>
+        <v>2020-10-18 12-42</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
